--- a/seronetTemplates/template/reagents.Other.xlsx
+++ b/seronetTemplates/template/reagents.Other.xlsx
@@ -69,7 +69,7 @@
     <t>other_reagents</t>
   </si>
   <si>
-    <t>Schema Version 3.35</t>
+    <t>Schema Version 3.36</t>
   </si>
   <si>
     <t>Please do not delete or edit this column</t>
